--- a/Fase 2/Evidencias Proyecto/Evidencias de documentación/Sprint 1/Sprint Planning.xlsx
+++ b/Fase 2/Evidencias Proyecto/Evidencias de documentación/Sprint 1/Sprint Planning.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="168">
   <si>
     <t>Rerencias sobre la planilla Sprint Planning</t>
   </si>
@@ -418,106 +418,385 @@
     <t>09/11/2024 - 19/11/2024</t>
   </si>
   <si>
+    <t>14/12/2024 - 15/12/2024</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">P03 </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>Poder ver mis horarios de clases y instrumentos</t>
+    </r>
+  </si>
+  <si>
+    <t>11/11/2024 - 16/11/2024</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">P04 </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>asignar y actualizar los horarios y salas disponibles</t>
+    </r>
+  </si>
+  <si>
+    <t>11/11/2024 - 17/11/2024</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">P05 </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>consultar salas que tengo asignadas</t>
+    </r>
+  </si>
+  <si>
+    <t>09/11/2024 - 14/11/2024</t>
+  </si>
+  <si>
+    <t>23/11/2024 - 13/12/2024</t>
+  </si>
+  <si>
+    <t>Continuar con el mismo responsable</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">P06 </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>Implementacion de asistente o chatwidget</t>
+    </r>
+  </si>
+  <si>
+    <t>09/11/2024 - 11/11/2024</t>
+  </si>
+  <si>
+    <t>13/11/2024 - 15/11/2024</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">P08 </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>automatizar el envío de mensajes por WhatsApp</t>
+    </r>
+  </si>
+  <si>
+    <t>10/11/2024 - 11/11/2024</t>
+  </si>
+  <si>
+    <t>15/12/2024 - 22/12/2024</t>
+  </si>
+  <si>
+    <t>Scrum Team</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">P09 </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>plataforma web con medidas de ciberseguridad.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">P13 </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>lista completa de todos los alumnos</t>
+    </r>
+  </si>
+  <si>
+    <t>11/11/2024 - 13/11/2024</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">P14 </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>Dashboard</t>
+    </r>
+  </si>
+  <si>
+    <t>12/11/2024 - 15/11/2024</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">P15 </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>Incluir animaciones en la pagina web</t>
+    </r>
+  </si>
+  <si>
+    <t>09/11/2024 - 09/11/2024</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">P16 </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>Registrar pagos de mensualidades</t>
+    </r>
+  </si>
+  <si>
+    <t>12/11/2024 - 17/11/2024</t>
+  </si>
+  <si>
+    <t>08/12/2024 - 13/12/2024</t>
+  </si>
+  <si>
+    <t>Responsabilidad pasada a CC</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">P17 </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>mantengan los colores de la empresa</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">P19 </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>Visualizar a los alumnos por el tipo de modalidad a la que pertenecen</t>
+    </r>
+  </si>
+  <si>
+    <t>17/11/2024 - 23/11/2024</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">P20 </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>Resúmenes generales del estado de la academia</t>
+    </r>
+  </si>
+  <si>
+    <t>16/11/2024 - 22/11/2024</t>
+  </si>
+  <si>
+    <t>P21 Lista de alumnos inscritos por mes y resumenes generales</t>
+  </si>
+  <si>
+    <t>13/11/2024 - 17/11/2024</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">P22 </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>Ver la disponibilidad de salas según los instrumentos o equipamiento</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">P23 </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>Que el chatwidget me redirija a un contacto de WhatsApp</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">P24 </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>Ver una sección con información de la academia</t>
+    </r>
+  </si>
+  <si>
+    <t>09/11/2024 - 10/11/2024</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">P25 </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>Ver una sección informativa acerca de modalidades de clases</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">P29 </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>Quiero una vista para poder tomar asistencia de mis alumnos.</t>
+    </r>
+  </si>
+  <si>
+    <t>01/12/2024 - 08/12/2024</t>
+  </si>
+  <si>
+    <t>09/11/2024 - 19/11/2029</t>
+  </si>
+  <si>
     <t>Sin fecha</t>
-  </si>
-  <si>
-    <t>P03</t>
-  </si>
-  <si>
-    <t>11/11/2024 - 16/11/2024</t>
-  </si>
-  <si>
-    <t>P04</t>
-  </si>
-  <si>
-    <t>11/11/2024 - 17/11/2024</t>
-  </si>
-  <si>
-    <t>P05</t>
-  </si>
-  <si>
-    <t>09/11/2024 - 14/11/2024</t>
-  </si>
-  <si>
-    <t>23/11/2024 - 13/12/2024</t>
-  </si>
-  <si>
-    <t>Continuar con el mismo responsable</t>
-  </si>
-  <si>
-    <t>P06</t>
-  </si>
-  <si>
-    <t>09/11/2024 - 11/11/2024</t>
-  </si>
-  <si>
-    <t>P08</t>
-  </si>
-  <si>
-    <t>10/11/2024 - 11/11/2024</t>
-  </si>
-  <si>
-    <t>P13</t>
-  </si>
-  <si>
-    <t>11/11/2024 - 13/11/2024</t>
-  </si>
-  <si>
-    <t>P14</t>
-  </si>
-  <si>
-    <t>12/11/2024 - 15/11/2024</t>
-  </si>
-  <si>
-    <t>P15</t>
-  </si>
-  <si>
-    <t>09/11/2024 - 09/11/2024</t>
-  </si>
-  <si>
-    <t>P16</t>
-  </si>
-  <si>
-    <t>12/11/2024 - 17/11/2024</t>
-  </si>
-  <si>
-    <t>08/12/2024 - 13/12/2024</t>
-  </si>
-  <si>
-    <t>Responsabilidad pasada a CC</t>
-  </si>
-  <si>
-    <t>P17</t>
-  </si>
-  <si>
-    <t>P19</t>
-  </si>
-  <si>
-    <t>17/11/2024 - 23/11/2024</t>
-  </si>
-  <si>
-    <t>P20</t>
-  </si>
-  <si>
-    <t>16/11/2024 - 22/11/2024</t>
-  </si>
-  <si>
-    <t>P22</t>
-  </si>
-  <si>
-    <t>P23</t>
-  </si>
-  <si>
-    <t>P24</t>
-  </si>
-  <si>
-    <t>09/11/2024 - 10/11/2024</t>
-  </si>
-  <si>
-    <t>P25</t>
-  </si>
-  <si>
-    <t>09/11/2024 - 19/11/2029</t>
   </si>
   <si>
     <t>20/11/2024 - 25/11/2031</t>
@@ -1306,7 +1585,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="12.75"/>
-    <col customWidth="1" min="2" max="2" width="37.5"/>
+    <col customWidth="1" min="2" max="2" width="49.13"/>
     <col customWidth="1" min="3" max="3" width="12.88"/>
     <col customWidth="1" min="4" max="4" width="22.75"/>
     <col customWidth="1" min="5" max="5" width="18.13"/>
@@ -2353,7 +2632,7 @@
       <c r="A51" s="24">
         <v>40.0</v>
       </c>
-      <c r="B51" s="25" t="s">
+      <c r="B51" s="35" t="s">
         <v>57</v>
       </c>
       <c r="C51" s="25" t="s">
@@ -2373,7 +2652,7 @@
       <c r="A52" s="24">
         <v>41.0</v>
       </c>
-      <c r="B52" s="25" t="s">
+      <c r="B52" s="35" t="s">
         <v>53</v>
       </c>
       <c r="C52" s="25" t="s">
@@ -2393,7 +2672,7 @@
       <c r="A53" s="24">
         <v>42.0</v>
       </c>
-      <c r="B53" s="25" t="s">
+      <c r="B53" s="35" t="s">
         <v>64</v>
       </c>
       <c r="C53" s="25" t="s">
@@ -2413,7 +2692,7 @@
       <c r="A54" s="24">
         <v>43.0</v>
       </c>
-      <c r="B54" s="25" t="s">
+      <c r="B54" s="35" t="s">
         <v>55</v>
       </c>
       <c r="C54" s="25" t="s">
@@ -2433,7 +2712,7 @@
       <c r="A55" s="24">
         <v>44.0</v>
       </c>
-      <c r="B55" s="25" t="s">
+      <c r="B55" s="35" t="s">
         <v>59</v>
       </c>
       <c r="C55" s="25" t="s">
@@ -2443,7 +2722,7 @@
         <v>122</v>
       </c>
       <c r="E55" s="25" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F55" s="25" t="s">
         <v>123</v>
@@ -2457,7 +2736,7 @@
       <c r="A56" s="24">
         <v>45.0</v>
       </c>
-      <c r="B56" s="25" t="s">
+      <c r="B56" s="35" t="s">
         <v>124</v>
       </c>
       <c r="C56" s="25" t="s">
@@ -2477,7 +2756,7 @@
       <c r="A57" s="24">
         <v>46.0</v>
       </c>
-      <c r="B57" s="25" t="s">
+      <c r="B57" s="35" t="s">
         <v>126</v>
       </c>
       <c r="C57" s="25" t="s">
@@ -2497,7 +2776,7 @@
       <c r="A58" s="24">
         <v>47.0</v>
       </c>
-      <c r="B58" s="25" t="s">
+      <c r="B58" s="35" t="s">
         <v>128</v>
       </c>
       <c r="C58" s="25" t="s">
@@ -2507,7 +2786,7 @@
         <v>129</v>
       </c>
       <c r="E58" s="25" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F58" s="25" t="s">
         <v>130</v>
@@ -2521,7 +2800,7 @@
       <c r="A59" s="24">
         <v>48.0</v>
       </c>
-      <c r="B59" s="25" t="s">
+      <c r="B59" s="35" t="s">
         <v>132</v>
       </c>
       <c r="C59" s="25" t="s">
@@ -2538,17 +2817,15 @@
       <c r="H59" s="37"/>
     </row>
     <row r="60">
-      <c r="A60" s="24">
-        <v>50.0</v>
-      </c>
-      <c r="B60" s="25" t="s">
+      <c r="A60" s="24"/>
+      <c r="B60" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="C60" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="25" t="s">
         <v>134</v>
-      </c>
-      <c r="C60" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D60" s="25" t="s">
-        <v>135</v>
       </c>
       <c r="E60" s="25" t="s">
         <v>27</v>
@@ -2559,36 +2836,40 @@
     </row>
     <row r="61">
       <c r="A61" s="24">
-        <v>51.0</v>
-      </c>
-      <c r="B61" s="25" t="s">
+        <v>50.0</v>
+      </c>
+      <c r="B61" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="C61" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="C61" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D61" s="25" t="s">
+      <c r="E61" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F61" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="E61" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F61" s="25"/>
-      <c r="G61" s="35"/>
+      <c r="G61" s="35" t="s">
+        <v>138</v>
+      </c>
       <c r="H61" s="37"/>
     </row>
     <row r="62">
       <c r="A62" s="24">
-        <v>52.0</v>
-      </c>
-      <c r="B62" s="25" t="s">
-        <v>138</v>
+        <v>51.0</v>
+      </c>
+      <c r="B62" s="35" t="s">
+        <v>139</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D62" s="25" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E62" s="25" t="s">
         <v>27</v>
@@ -2599,13 +2880,13 @@
     </row>
     <row r="63">
       <c r="A63" s="24">
-        <v>53.0</v>
-      </c>
-      <c r="B63" s="25" t="s">
+        <v>52.0</v>
+      </c>
+      <c r="B63" s="35" t="s">
         <v>140</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D63" s="25" t="s">
         <v>141</v>
@@ -2619,40 +2900,36 @@
     </row>
     <row r="64">
       <c r="A64" s="24">
-        <v>54.0</v>
-      </c>
-      <c r="B64" s="25" t="s">
+        <v>52.0</v>
+      </c>
+      <c r="B64" s="35" t="s">
         <v>142</v>
       </c>
       <c r="C64" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D64" s="40" t="s">
+      <c r="D64" s="25" t="s">
         <v>143</v>
       </c>
       <c r="E64" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="F64" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="G64" s="35" t="s">
-        <v>145</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="F64" s="25"/>
+      <c r="G64" s="35"/>
       <c r="H64" s="37"/>
     </row>
     <row r="65">
       <c r="A65" s="24">
-        <v>55.0</v>
-      </c>
-      <c r="B65" s="25" t="s">
-        <v>146</v>
+        <v>53.0</v>
+      </c>
+      <c r="B65" s="35" t="s">
+        <v>144</v>
       </c>
       <c r="C65" s="25" t="s">
         <v>6</v>
       </c>
       <c r="D65" s="25" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E65" s="25" t="s">
         <v>27</v>
@@ -2663,36 +2940,40 @@
     </row>
     <row r="66">
       <c r="A66" s="24">
-        <v>56.0</v>
-      </c>
-      <c r="B66" s="25" t="s">
+        <v>54.0</v>
+      </c>
+      <c r="B66" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="C66" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="C66" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D66" s="40" t="s">
+      <c r="E66" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F66" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="E66" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F66" s="25"/>
-      <c r="G66" s="35"/>
+      <c r="G66" s="35" t="s">
+        <v>149</v>
+      </c>
       <c r="H66" s="37"/>
     </row>
     <row r="67">
       <c r="A67" s="24">
-        <v>57.0</v>
-      </c>
-      <c r="B67" s="25" t="s">
-        <v>149</v>
+        <v>55.0</v>
+      </c>
+      <c r="B67" s="35" t="s">
+        <v>150</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D67" s="25" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E67" s="25" t="s">
         <v>27</v>
@@ -2703,22 +2984,22 @@
     </row>
     <row r="68">
       <c r="A68" s="24">
-        <v>58.0</v>
-      </c>
-      <c r="B68" s="25" t="s">
+        <v>56.0</v>
+      </c>
+      <c r="B68" s="35" t="s">
         <v>151</v>
       </c>
       <c r="C68" s="25" t="s">
         <v>6</v>
       </c>
       <c r="D68" s="40" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E68" s="25" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G68" s="35" t="s">
         <v>131</v>
@@ -2727,16 +3008,16 @@
     </row>
     <row r="69">
       <c r="A69" s="24">
-        <v>59.0</v>
-      </c>
-      <c r="B69" s="25" t="s">
-        <v>152</v>
+        <v>57.0</v>
+      </c>
+      <c r="B69" s="35" t="s">
+        <v>153</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D69" s="25" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="E69" s="25" t="s">
         <v>27</v>
@@ -2747,16 +3028,16 @@
     </row>
     <row r="70">
       <c r="A70" s="24">
-        <v>60.0</v>
-      </c>
-      <c r="B70" s="25" t="s">
-        <v>153</v>
+        <v>58.0</v>
+      </c>
+      <c r="B70" s="30" t="s">
+        <v>155</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D70" s="25" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E70" s="25" t="s">
         <v>27</v>
@@ -2767,87 +3048,175 @@
     </row>
     <row r="71">
       <c r="A71" s="24">
-        <v>61.0</v>
-      </c>
-      <c r="B71" s="25" t="s">
-        <v>155</v>
+        <v>59.0</v>
+      </c>
+      <c r="B71" s="35" t="s">
+        <v>157</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71" s="25" t="s">
-        <v>154</v>
+        <v>6</v>
+      </c>
+      <c r="D71" s="40" t="s">
+        <v>152</v>
       </c>
       <c r="E71" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F71" s="25"/>
-      <c r="G71" s="35"/>
+        <v>22</v>
+      </c>
+      <c r="F71" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="G71" s="35" t="s">
+        <v>131</v>
+      </c>
       <c r="H71" s="37"/>
     </row>
     <row r="72">
       <c r="A72" s="24">
-        <v>62.0</v>
+        <v>60.0</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>63</v>
+        <v>158</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D72" s="40" t="s">
-        <v>156</v>
+        <v>10</v>
+      </c>
+      <c r="D72" s="25" t="s">
+        <v>133</v>
       </c>
       <c r="E72" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F72" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="G72" s="35" t="s">
-        <v>84</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="F72" s="25"/>
+      <c r="G72" s="35"/>
       <c r="H72" s="37"/>
     </row>
     <row r="73">
       <c r="A73" s="24">
-        <v>63.0</v>
+        <v>61.0</v>
       </c>
       <c r="B73" s="25" t="s">
-        <v>66</v>
+        <v>159</v>
       </c>
       <c r="C73" s="25" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="25" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E73" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="F73" s="37"/>
-      <c r="G73" s="37"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="35"/>
       <c r="H73" s="37"/>
     </row>
     <row r="74">
       <c r="A74" s="24">
-        <v>64.0</v>
+        <v>62.0</v>
       </c>
       <c r="B74" s="25" t="s">
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="C74" s="25" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="25" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E74" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="F74" s="37"/>
-      <c r="G74" s="37"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="35"/>
       <c r="H74" s="37"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="24">
+        <v>63.0</v>
+      </c>
+      <c r="B75" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="C75" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="E75" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F75" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="G75" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="H75" s="37"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="24">
+        <v>64.0</v>
+      </c>
+      <c r="B76" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C76" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="E76" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F76" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="G76" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="H76" s="37"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="24">
+        <v>65.0</v>
+      </c>
+      <c r="B77" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C77" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="E77" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F77" s="37"/>
+      <c r="G77" s="37"/>
+      <c r="H77" s="37"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="24">
+        <v>65.0</v>
+      </c>
+      <c r="B78" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C78" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="E78" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F78" s="37"/>
+      <c r="G78" s="37"/>
+      <c r="H78" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2857,7 +3226,7 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E8">
       <formula1>"Completado,En progreso,No iniciado,Bloqueo"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E9:E19 E22:E48 E51:E74">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E9:E19 E22:E48 E51:E78">
       <formula1>"Completado,En progreso,No iniciado,Bloqueo,Archivado"</formula1>
     </dataValidation>
   </dataValidations>
